--- a/examples/Zulassung/students.xlsx
+++ b/examples/Zulassung/students.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/werne/Documents/osg-exam/examples/Zulassung/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32440" windowHeight="18960"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -12,18 +17,18 @@
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -125,6 +130,15 @@
   </si>
   <si>
     <t>NamE</t>
+  </si>
+  <si>
+    <t>Sitz</t>
+  </si>
+  <si>
+    <t>A3.141.5</t>
+  </si>
+  <si>
+    <t>C0815</t>
   </si>
 </sst>
 </file>
@@ -225,7 +239,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,23 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -556,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" customHeight="1">
+    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -573,8 +587,11 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="23" customHeight="1">
+    <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>20</v>
       </c>
@@ -593,8 +610,11 @@
       <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>44</v>
       </c>
@@ -613,146 +633,144 @@
       <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1"/>
-    <row r="7" spans="1:6" ht="21" customHeight="1"/>
-    <row r="8" spans="1:6" ht="20" customHeight="1"/>
-    <row r="9" spans="1:6" ht="21" customHeight="1"/>
-    <row r="10" spans="1:6" ht="20" customHeight="1"/>
-    <row r="11" spans="1:6" ht="21" customHeight="1"/>
-    <row r="12" spans="1:6" ht="21" customHeight="1"/>
-    <row r="13" spans="1:6" ht="20" customHeight="1"/>
-    <row r="14" spans="1:6" ht="21" customHeight="1"/>
-    <row r="15" spans="1:6" ht="21" customHeight="1"/>
-    <row r="16" spans="1:6" ht="21" customHeight="1"/>
-    <row r="17" ht="21" customHeight="1"/>
-    <row r="18" ht="21" customHeight="1"/>
-    <row r="19" ht="21" customHeight="1"/>
-    <row r="20" ht="20" customHeight="1"/>
-    <row r="21" ht="21" customHeight="1"/>
-    <row r="22" ht="21" customHeight="1"/>
-    <row r="23" ht="22" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="21" customHeight="1"/>
-    <row r="26" ht="20" customHeight="1"/>
-    <row r="27" ht="21" customHeight="1"/>
-    <row r="28" ht="21" customHeight="1"/>
-    <row r="29" ht="21" customHeight="1"/>
-    <row r="30" ht="21" customHeight="1"/>
-    <row r="31" ht="20" customHeight="1"/>
-    <row r="32" ht="21" customHeight="1"/>
-    <row r="33" ht="21" customHeight="1"/>
-    <row r="34" ht="20" customHeight="1"/>
-    <row r="35" ht="21" customHeight="1"/>
-    <row r="36" ht="21" customHeight="1"/>
-    <row r="37" ht="21" customHeight="1"/>
-    <row r="38" ht="20" customHeight="1"/>
-    <row r="39" ht="21" customHeight="1"/>
-    <row r="40" ht="21" customHeight="1"/>
-    <row r="41" ht="20" customHeight="1"/>
-    <row r="42" ht="21" customHeight="1"/>
-    <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="21" customHeight="1"/>
-    <row r="46" ht="20" customHeight="1"/>
-    <row r="47" ht="21" customHeight="1"/>
-    <row r="48" ht="20" customHeight="1"/>
-    <row r="49" ht="21" customHeight="1"/>
-    <row r="50" ht="21" customHeight="1"/>
-    <row r="51" ht="22" customHeight="1"/>
-    <row r="52" ht="20" customHeight="1"/>
-    <row r="53" ht="21" customHeight="1"/>
-    <row r="54" ht="20" customHeight="1"/>
-    <row r="55" ht="21" customHeight="1"/>
-    <row r="56" ht="21" customHeight="1"/>
-    <row r="57" ht="21" customHeight="1"/>
-    <row r="58" ht="21" customHeight="1"/>
-    <row r="59" ht="20" customHeight="1"/>
-    <row r="60" ht="21" customHeight="1"/>
-    <row r="61" ht="21" customHeight="1"/>
-    <row r="62" ht="20" customHeight="1"/>
-    <row r="63" ht="21" customHeight="1"/>
-    <row r="64" ht="21" customHeight="1"/>
-    <row r="65" ht="21" customHeight="1"/>
-    <row r="66" ht="20" customHeight="1"/>
-    <row r="67" ht="21" customHeight="1"/>
-    <row r="68" ht="21" customHeight="1"/>
-    <row r="69" ht="20" customHeight="1"/>
-    <row r="70" ht="21" customHeight="1"/>
-    <row r="71" ht="21" customHeight="1"/>
-    <row r="72" ht="21" customHeight="1"/>
-    <row r="73" ht="21" customHeight="1"/>
-    <row r="74" ht="20" customHeight="1"/>
-    <row r="75" ht="21" customHeight="1"/>
-    <row r="76" ht="20" customHeight="1"/>
-    <row r="77" ht="21" customHeight="1"/>
-    <row r="78" ht="21" customHeight="1"/>
-    <row r="79" ht="22" customHeight="1"/>
-    <row r="80" ht="20" customHeight="1"/>
-    <row r="81" ht="21" customHeight="1"/>
-    <row r="82" ht="20" customHeight="1"/>
-    <row r="83" ht="21" customHeight="1"/>
-    <row r="84" ht="21" customHeight="1"/>
-    <row r="85" ht="21" customHeight="1"/>
-    <row r="86" ht="21" customHeight="1"/>
-    <row r="87" ht="20" customHeight="1"/>
-    <row r="88" ht="21" customHeight="1"/>
-    <row r="89" ht="21" customHeight="1"/>
-    <row r="90" ht="20" customHeight="1"/>
-    <row r="91" ht="21" customHeight="1"/>
-    <row r="92" ht="21" customHeight="1"/>
-    <row r="93" ht="21" customHeight="1"/>
-    <row r="94" ht="20" customHeight="1"/>
-    <row r="95" ht="21" customHeight="1"/>
-    <row r="96" ht="21" customHeight="1"/>
-    <row r="97" ht="20" customHeight="1"/>
-    <row r="98" ht="21" customHeight="1"/>
-    <row r="99" ht="21" customHeight="1"/>
-    <row r="100" ht="21" customHeight="1"/>
-    <row r="101" ht="21" customHeight="1"/>
-    <row r="102" ht="20" customHeight="1"/>
-    <row r="103" ht="21" customHeight="1"/>
-    <row r="104" ht="20" customHeight="1"/>
-    <row r="105" ht="21" customHeight="1"/>
-    <row r="106" ht="21" customHeight="1"/>
-    <row r="107" ht="22" customHeight="1"/>
-    <row r="108" ht="20" customHeight="1"/>
-    <row r="109" ht="21" customHeight="1"/>
-    <row r="110" ht="20" customHeight="1"/>
-    <row r="111" ht="21" customHeight="1"/>
-    <row r="112" ht="21" customHeight="1"/>
-    <row r="113" ht="21" customHeight="1"/>
-    <row r="114" ht="21" customHeight="1"/>
-    <row r="115" ht="20" customHeight="1"/>
-    <row r="116" ht="21" customHeight="1"/>
-    <row r="117" ht="21" customHeight="1"/>
-    <row r="118" ht="20" customHeight="1"/>
-    <row r="119" ht="21" customHeight="1"/>
-    <row r="120" ht="21" customHeight="1"/>
-    <row r="121" ht="21" customHeight="1"/>
-    <row r="122" ht="20" customHeight="1"/>
-    <row r="123" ht="21" customHeight="1"/>
-    <row r="124" ht="21" customHeight="1"/>
-    <row r="125" ht="20" customHeight="1"/>
-    <row r="126" ht="21" customHeight="1"/>
-    <row r="127" ht="21" customHeight="1"/>
-    <row r="128" ht="21" customHeight="1"/>
-    <row r="129" ht="21" customHeight="1"/>
-    <row r="130" ht="20" customHeight="1"/>
-    <row r="131" ht="21" customHeight="1"/>
-    <row r="132" ht="20" customHeight="1"/>
-    <row r="133" ht="21" customHeight="1"/>
-    <row r="134" ht="21" customHeight="1"/>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A4:R134">
     <sortCondition ref="D4:D134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -760,36 +778,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="0.83203125" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="1.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="0.796875" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" customWidth="1"/>
+    <col min="4" max="4" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="7" max="7" width="31.19921875" customWidth="1"/>
+    <col min="8" max="8" width="1.796875" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>